--- a/data/trans_orig/P32B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE77F78-782C-4514-A29E-C3AC824DD8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D829E4-5B38-41BE-8F42-2C8D94EB347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D8410D-4B75-4F0F-B48B-9DA5DABBBDA6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51297449-041F-4192-BFD3-A109FD055007}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,1246 +77,1246 @@
     <t>1,96%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>92,54%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>95,71%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>98,12%</t>
   </si>
   <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
     <t>97,34%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA993758-17B3-4FFE-B7B8-C622C13E88F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B6888-16E5-480E-B61C-75E6422B0224}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2502,13 +2502,13 @@
         <v>895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2523,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -2541,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2553,10 @@
         <v>143299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2627,13 +2627,13 @@
         <v>2612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2642,13 +2642,13 @@
         <v>3005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2657,13 +2657,13 @@
         <v>5617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,10 +2678,10 @@
         <v>191672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2693,13 +2693,13 @@
         <v>108778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -2708,13 +2708,13 @@
         <v>300450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2770,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2788,7 +2788,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -2851,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2866,7 +2866,7 @@
         <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2937,13 +2937,13 @@
         <v>1659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2952,13 +2952,13 @@
         <v>2973</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2967,13 +2967,13 @@
         <v>4632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>491229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3003,13 +3003,13 @@
         <v>236965</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>707</v>
@@ -3018,13 +3018,13 @@
         <v>728194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3092,13 @@
         <v>15343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3107,13 +3107,13 @@
         <v>9331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -3122,13 +3122,13 @@
         <v>24674</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>1864575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>865</v>
@@ -3158,13 +3158,13 @@
         <v>885189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M29" s="7">
         <v>2695</v>
@@ -3173,13 +3173,13 @@
         <v>2749765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7938A7E5-6532-4F78-A735-3792968DC7AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D8FB79-E931-44D4-8364-8DBDE03B2427}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3381,39 +3381,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,39 +3426,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,39 +3471,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3520,13 @@
         <v>9049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3553,10 +3553,10 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3571,13 @@
         <v>301071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3589,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3604,10 +3604,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3690,13 +3690,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3705,13 +3705,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3741,10 +3741,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3756,10 +3756,10 @@
         <v>326136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3830,13 +3830,13 @@
         <v>19259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3845,13 +3845,13 @@
         <v>2014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3860,13 +3860,13 @@
         <v>21272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3881,13 @@
         <v>347095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -3896,10 +3896,10 @@
         <v>195020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3911,13 +3911,13 @@
         <v>542116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3985,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4015,13 +4015,13 @@
         <v>5193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4036,13 @@
         <v>123015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4054,7 +4054,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4066,13 +4066,13 @@
         <v>177124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4140,13 +4140,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4170,13 +4170,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4191,10 @@
         <v>182815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4209,7 +4209,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4221,10 @@
         <v>277021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4295,13 +4295,13 @@
         <v>14777</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4310,13 +4310,13 @@
         <v>3211</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4325,13 +4325,13 @@
         <v>17988</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4346,13 @@
         <v>382692</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4361,13 +4361,13 @@
         <v>210247</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -4376,13 +4376,13 @@
         <v>592940</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4450,13 +4450,13 @@
         <v>9130</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4465,13 +4465,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4480,13 +4480,13 @@
         <v>10126</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4501,13 @@
         <v>444620</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4516,10 +4516,10 @@
         <v>212923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4531,13 +4531,13 @@
         <v>657543</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4605,13 @@
         <v>58462</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4623,10 +4623,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4635,13 +4635,13 @@
         <v>65668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,28 +4656,28 @@
         <v>1983782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>956</v>
       </c>
       <c r="I29" s="7">
-        <v>1041530</v>
+        <v>1041529</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>2822</v>
@@ -4686,13 +4686,13 @@
         <v>3025312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4719,7 @@
         <v>963</v>
       </c>
       <c r="I30" s="7">
-        <v>1048737</v>
+        <v>1048736</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5831B-D9E8-4265-A579-0C2D45F57E55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1333E206-9364-460C-B8FC-1CC45EC28A5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4789,7 +4789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4896,13 +4896,13 @@
         <v>13342</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4911,13 +4911,13 @@
         <v>4712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4926,13 +4926,13 @@
         <v>18054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4947,13 @@
         <v>165330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4962,13 +4962,13 @@
         <v>101449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -4977,13 +4977,13 @@
         <v>266779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5057,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5105,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5135,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5206,13 +5206,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5236,13 +5236,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,10 +5257,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5275,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5287,10 +5287,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5361,13 +5361,13 @@
         <v>2225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5391,13 +5391,13 @@
         <v>2225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,10 +5412,10 @@
         <v>230286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5430,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5442,10 +5442,10 @@
         <v>383083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5516,13 +5516,13 @@
         <v>3640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5546,13 +5546,13 @@
         <v>3640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5567,13 @@
         <v>87537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5585,7 +5585,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5597,13 +5597,13 @@
         <v>125012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5659,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5671,13 +5671,13 @@
         <v>3844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5686,13 +5686,13 @@
         <v>941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5701,13 +5701,13 @@
         <v>4785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5722,13 @@
         <v>185209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -5737,10 +5737,10 @@
         <v>104660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5752,13 +5752,13 @@
         <v>289869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,7 +5814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5826,13 +5826,13 @@
         <v>12708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5841,13 +5841,13 @@
         <v>6103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5856,13 +5856,13 @@
         <v>18811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5877,13 @@
         <v>369214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>232</v>
@@ -5892,13 +5892,13 @@
         <v>247507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5907,13 +5907,13 @@
         <v>616721</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5981,13 +5981,13 @@
         <v>5611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6011,13 +6011,13 @@
         <v>5611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6032,13 @@
         <v>450815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -6050,7 +6050,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6062,13 +6062,13 @@
         <v>716082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6136,13 @@
         <v>42235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6151,13 +6151,13 @@
         <v>11756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6166,13 +6166,13 @@
         <v>53991</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6187,13 @@
         <v>1960379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>1082</v>
@@ -6202,13 +6202,13 @@
         <v>1132989</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6217,13 +6217,13 @@
         <v>3093368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6303,7 +6303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFD1653-50E2-4FE6-8649-1A46FBAD77F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E7D60-894C-4025-B9C3-E69A2BBEB783}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,7 +6320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6427,13 +6427,13 @@
         <v>4246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6442,13 +6442,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6457,13 +6457,13 @@
         <v>4405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6478,13 @@
         <v>150234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -6493,10 +6493,10 @@
         <v>84798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6508,13 +6508,13 @@
         <v>235032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6582,13 @@
         <v>2768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6612,13 +6612,13 @@
         <v>2768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,10 +6633,10 @@
         <v>249177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6651,7 +6651,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6663,10 +6663,10 @@
         <v>374476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6737,13 +6737,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6752,13 +6752,13 @@
         <v>1794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6767,13 +6767,13 @@
         <v>9886</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6788,13 @@
         <v>180850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>122</v>
@@ -6803,13 +6803,13 @@
         <v>94004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -6818,13 +6818,13 @@
         <v>274854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6892,13 @@
         <v>1688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6907,13 +6907,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6922,13 +6922,13 @@
         <v>2651</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,10 +6943,10 @@
         <v>179889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6958,10 +6958,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6973,10 +6973,10 @@
         <v>313090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>373</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7205,10 +7205,10 @@
         <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7217,13 +7217,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7232,10 +7232,10 @@
         <v>6227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>390</v>
@@ -7259,7 +7259,7 @@
         <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7268,13 +7268,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -7283,13 +7283,13 @@
         <v>266532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,7 +7345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7372,13 +7372,13 @@
         <v>7532</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -7387,13 +7387,13 @@
         <v>14309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,10 +7408,10 @@
         <v>302152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>51</v>
@@ -7423,13 +7423,13 @@
         <v>312804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>408</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -7438,13 +7438,13 @@
         <v>614956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,7 +7500,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7512,13 +7512,13 @@
         <v>3024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7527,13 +7527,13 @@
         <v>1631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7542,13 +7542,13 @@
         <v>4655</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>322940</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -7578,10 +7578,10 @@
         <v>119829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7593,13 +7593,13 @@
         <v>442769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7667,13 @@
         <v>30421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7682,13 +7682,13 @@
         <v>14961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>417</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -7697,13 +7697,13 @@
         <v>45382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>421</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,13 +7718,13 @@
         <v>1585370</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>1182</v>
@@ -7733,13 +7733,13 @@
         <v>980185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="M29" s="7">
         <v>2732</v>
@@ -7748,13 +7748,13 @@
         <v>2565555</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,7 +7810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D829E4-5B38-41BE-8F42-2C8D94EB347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2353A7E-9103-4403-815A-A79816271EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51297449-041F-4192-BFD3-A109FD055007}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F754069-460C-4DB8-953A-6F27DD9DE3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="414">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,1209 +77,1179 @@
     <t>1,96%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
@@ -1295,9 +1265,6 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
     <t>1,74%</t>
   </si>
   <si>
@@ -1308,9 +1275,6 @@
   </si>
   <si>
     <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -1728,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B6888-16E5-480E-B61C-75E6422B0224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82045266-DC1A-4B4A-A5FF-FBF3CBDC5D9F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2502,13 +2466,13 @@
         <v>895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2487,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -2541,7 +2505,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2517,10 @@
         <v>143299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -2615,7 +2579,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2627,13 +2591,13 @@
         <v>2612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2642,13 +2606,13 @@
         <v>3005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2657,13 +2621,13 @@
         <v>5617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,10 +2642,10 @@
         <v>191672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2693,13 +2657,13 @@
         <v>108778</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -2708,13 +2672,13 @@
         <v>300450</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2919,10 @@
         <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2967,13 +2931,13 @@
         <v>4632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,10 +2952,10 @@
         <v>491229</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3003,13 +2967,13 @@
         <v>236965</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>707</v>
@@ -3018,13 +2982,13 @@
         <v>728194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3056,13 @@
         <v>15343</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3107,13 +3071,13 @@
         <v>9331</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -3122,13 +3086,13 @@
         <v>24674</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3107,13 @@
         <v>1864575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>865</v>
@@ -3158,13 +3122,13 @@
         <v>885189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>2695</v>
@@ -3173,13 +3137,13 @@
         <v>2749765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3199,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D8FB79-E931-44D4-8364-8DBDE03B2427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F91B2-7D2F-4D5E-814C-30D87DB9EF94}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3381,39 +3345,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,39 +3390,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,39 +3435,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3484,13 @@
         <v>9049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3541,7 +3505,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3553,10 +3517,10 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3535,13 @@
         <v>301071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3589,7 +3553,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3604,10 +3568,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3645,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3690,13 +3654,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3705,13 +3669,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3693,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3741,10 +3705,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3756,10 +3720,10 @@
         <v>326136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3830,13 +3794,13 @@
         <v>19259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3845,13 +3809,13 @@
         <v>2014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3860,13 +3824,13 @@
         <v>21272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3845,13 @@
         <v>347095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -3896,10 +3860,10 @@
         <v>195020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3911,13 +3875,13 @@
         <v>542116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3949,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4006,7 +3970,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4015,13 +3979,13 @@
         <v>5193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4000,13 @@
         <v>123015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4054,7 +4018,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4066,13 +4030,13 @@
         <v>177124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4140,13 +4104,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4161,7 +4125,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4170,13 +4134,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4155,10 @@
         <v>182815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4209,7 +4173,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4185,10 @@
         <v>277021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4295,13 +4259,13 @@
         <v>14777</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4310,13 +4274,13 @@
         <v>3211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4325,13 +4289,13 @@
         <v>17988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4310,13 @@
         <v>382692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4361,13 +4325,13 @@
         <v>210247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -4376,13 +4340,13 @@
         <v>592940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4414,13 @@
         <v>9130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4465,13 +4429,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4480,13 +4444,13 @@
         <v>10126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4465,13 @@
         <v>444620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4516,10 +4480,10 @@
         <v>212923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4531,13 +4495,13 @@
         <v>657543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4569,13 @@
         <v>58462</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4623,10 +4587,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4635,13 +4599,13 @@
         <v>65668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,28 +4620,28 @@
         <v>1983782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H29" s="7">
         <v>956</v>
       </c>
       <c r="I29" s="7">
-        <v>1041529</v>
+        <v>1041530</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>2822</v>
@@ -4686,13 +4650,13 @@
         <v>3025312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4683,7 @@
         <v>963</v>
       </c>
       <c r="I30" s="7">
-        <v>1048736</v>
+        <v>1048737</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4748,7 +4712,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1333E206-9364-460C-B8FC-1CC45EC28A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A319C66D-B6E5-4D9A-9D0D-864AFF11BE0F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4789,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4896,13 +4860,13 @@
         <v>13342</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4911,13 +4875,13 @@
         <v>4712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4926,13 +4890,13 @@
         <v>18054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4911,13 @@
         <v>165330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4962,13 +4926,13 @@
         <v>101449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -4977,13 +4941,13 @@
         <v>266779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5021,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5087,7 +5051,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5069,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5099,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5206,13 +5170,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5227,7 +5191,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5236,13 +5200,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,10 +5221,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5287,10 +5251,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5361,13 +5325,13 @@
         <v>2225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5382,7 +5346,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5391,13 +5355,13 @@
         <v>2225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,10 +5376,10 @@
         <v>230286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5394,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5442,10 +5406,10 @@
         <v>383083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5516,13 +5480,13 @@
         <v>3640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5537,7 +5501,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5546,13 +5510,13 @@
         <v>3640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5531,13 @@
         <v>87537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5585,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5594,16 +5558,16 @@
         <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>125012</v>
+        <v>125011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +5609,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128652</v>
+        <v>128651</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5659,7 +5623,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5671,13 +5635,13 @@
         <v>3844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5686,13 +5650,13 @@
         <v>941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5701,13 +5665,13 @@
         <v>4785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5686,13 @@
         <v>185209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -5737,10 +5701,10 @@
         <v>104660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5752,13 +5716,13 @@
         <v>289869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5790,13 @@
         <v>12708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5841,13 +5805,13 @@
         <v>6103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5856,13 +5820,13 @@
         <v>18811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5841,13 @@
         <v>369214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>232</v>
@@ -5892,13 +5856,13 @@
         <v>247507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5907,13 +5871,13 @@
         <v>616721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5945,13 @@
         <v>5611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6002,7 +5966,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6011,13 +5975,13 @@
         <v>5611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +5996,13 @@
         <v>450815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -6050,7 +6014,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6062,13 +6026,13 @@
         <v>716082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6100,13 @@
         <v>42235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6151,13 +6115,13 @@
         <v>11756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6166,13 +6130,13 @@
         <v>53991</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6151,13 @@
         <v>1960379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>1082</v>
@@ -6202,13 +6166,13 @@
         <v>1132989</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6217,13 +6181,13 @@
         <v>3093368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6243,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6303,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E7D60-894C-4025-B9C3-E69A2BBEB783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F8A2F-2A31-4330-A633-BC4216E982E6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,7 +6284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6427,13 +6391,13 @@
         <v>4246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6442,13 +6406,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6457,13 +6421,13 @@
         <v>4405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6442,13 @@
         <v>150234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -6493,10 +6457,10 @@
         <v>84798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6508,13 +6472,13 @@
         <v>235032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6546,13 @@
         <v>2768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6603,7 +6567,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6612,13 +6576,13 @@
         <v>2768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,10 +6597,10 @@
         <v>249177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6651,7 +6615,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6663,10 +6627,10 @@
         <v>374476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6737,13 +6701,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6752,13 +6716,13 @@
         <v>1794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6767,13 +6731,13 @@
         <v>9886</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,10 +6752,10 @@
         <v>180850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>52</v>
@@ -6803,13 +6767,13 @@
         <v>94004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -6818,13 +6782,13 @@
         <v>274854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6856,13 @@
         <v>1688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6907,13 +6871,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6922,13 +6886,13 @@
         <v>2651</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,10 +6907,10 @@
         <v>179889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6958,10 +6922,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6973,13 +6937,13 @@
         <v>313090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,7 +7017,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7062,13 +7026,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7077,13 +7041,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,7 +7065,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7113,10 +7077,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7128,10 +7092,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7190,7 +7154,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7202,13 +7166,13 @@
         <v>3827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7217,13 +7181,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7232,13 +7196,13 @@
         <v>6227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7217,13 @@
         <v>165597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7268,13 +7232,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -7283,13 +7247,13 @@
         <v>266532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7321,13 @@
         <v>6777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7372,13 +7336,13 @@
         <v>7532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -7387,13 +7351,13 @@
         <v>14309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,10 +7372,10 @@
         <v>302152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>51</v>
@@ -7423,13 +7387,13 @@
         <v>312804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -7438,13 +7402,13 @@
         <v>614956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,13 +7476,13 @@
         <v>3024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7527,13 +7491,13 @@
         <v>1631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7542,13 +7506,13 @@
         <v>4655</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>410</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7527,13 @@
         <v>322940</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -7578,10 +7542,10 @@
         <v>119829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7593,13 +7557,13 @@
         <v>442769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7631,13 @@
         <v>30421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7682,13 +7646,13 @@
         <v>14961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>418</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -7697,13 +7661,13 @@
         <v>45382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,13 +7682,13 @@
         <v>1585370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>1182</v>
@@ -7733,13 +7697,13 @@
         <v>980185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M29" s="7">
         <v>2732</v>
@@ -7748,13 +7712,13 @@
         <v>2565555</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,7 +7774,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2353A7E-9103-4403-815A-A79816271EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38180C7-06DA-447C-BF4A-0677379A4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F754069-460C-4DB8-953A-6F27DD9DE3D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C129D8E6-6F33-4FC2-95C6-992F62B43971}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="426">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -80,7 +80,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>2,97%</t>
@@ -89,1198 +89,1234 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,09%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82045266-DC1A-4B4A-A5FF-FBF3CBDC5D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3897374C-596E-4E08-8B94-F9A96CF1AC5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,7 +2508,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2556,7 @@
         <v>23</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -2624,10 +2660,10 @@
         <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2678,10 @@
         <v>191672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2657,13 +2693,13 @@
         <v>108778</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -2672,13 +2708,13 @@
         <v>300450</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2770,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2752,7 +2788,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2767,7 +2803,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2782,7 +2818,7 @@
         <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2836,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2830,7 +2866,7 @@
         <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -2889,7 +2925,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2937,13 @@
         <v>1659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2916,13 +2952,13 @@
         <v>2973</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2931,13 +2967,13 @@
         <v>4632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,10 +2988,10 @@
         <v>491229</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -2967,13 +3003,13 @@
         <v>236965</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>707</v>
@@ -2982,7 +3018,7 @@
         <v>728194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>111</v>
@@ -3092,7 +3128,7 @@
         <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3143,13 @@
         <v>1864575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>865</v>
@@ -3122,13 +3158,13 @@
         <v>885189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>2695</v>
@@ -3137,13 +3173,13 @@
         <v>2749765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3235,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F91B2-7D2F-4D5E-814C-30D87DB9EF94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC5364-901D-4655-8109-176D6F033855}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3345,39 +3381,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,39 +3426,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,39 +3471,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3520,13 @@
         <v>9049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3505,7 +3541,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3517,10 +3553,10 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3571,13 @@
         <v>301071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3553,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3669,13 +3705,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3729,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3705,10 +3741,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3720,10 +3756,10 @@
         <v>326136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3794,13 +3830,13 @@
         <v>19259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3809,13 +3845,13 @@
         <v>2014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3824,13 +3860,13 @@
         <v>21272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3881,13 @@
         <v>347095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -3860,10 +3896,10 @@
         <v>195020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3875,13 +3911,13 @@
         <v>542116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3985,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3970,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3979,13 +4015,13 @@
         <v>5193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4036,13 @@
         <v>123015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4018,7 +4054,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4030,13 +4066,13 @@
         <v>177124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4140,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4125,7 +4161,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4134,13 +4170,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4191,10 @@
         <v>182815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4173,7 +4209,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4185,10 +4221,10 @@
         <v>277021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4247,7 +4283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4295,13 @@
         <v>14777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4274,13 +4310,13 @@
         <v>3211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4289,13 +4325,13 @@
         <v>17988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4346,13 @@
         <v>382692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4325,13 +4361,13 @@
         <v>210247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -4340,13 +4376,13 @@
         <v>592940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4450,13 @@
         <v>9130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4429,13 +4465,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4444,13 +4480,13 @@
         <v>10126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4501,13 @@
         <v>444620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4480,10 +4516,10 @@
         <v>212923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4495,13 +4531,13 @@
         <v>657543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4605,13 @@
         <v>58462</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4587,10 +4623,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4599,13 +4635,13 @@
         <v>65668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4656,13 @@
         <v>1983782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>956</v>
@@ -4638,10 +4674,10 @@
         <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>2822</v>
@@ -4650,13 +4686,13 @@
         <v>3025312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A319C66D-B6E5-4D9A-9D0D-864AFF11BE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00EF133-3B68-4A63-BEBF-C077F8890F33}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4753,7 +4789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4860,13 +4896,13 @@
         <v>13342</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4875,13 +4911,13 @@
         <v>4712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4890,13 +4926,13 @@
         <v>18054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4947,13 @@
         <v>165330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4926,13 +4962,13 @@
         <v>101449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -4941,13 +4977,13 @@
         <v>266779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +5057,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5051,7 +5087,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5105,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5099,7 +5135,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5170,13 +5206,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5191,7 +5227,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5200,13 +5236,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,10 +5257,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5239,7 +5275,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5251,10 +5287,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5325,13 +5361,13 @@
         <v>2225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5346,7 +5382,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5355,13 +5391,13 @@
         <v>2225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,10 +5412,10 @@
         <v>230286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5394,7 +5430,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5406,10 +5442,10 @@
         <v>383083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5480,13 +5516,13 @@
         <v>3640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5501,7 +5537,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5510,13 +5546,13 @@
         <v>3640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5567,13 @@
         <v>87537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5549,7 +5585,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5558,16 +5594,16 @@
         <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>125011</v>
+        <v>125012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5645,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128651</v>
+        <v>128652</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5635,13 +5671,13 @@
         <v>3844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5656,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5665,13 +5701,13 @@
         <v>4785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5722,13 @@
         <v>185209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -5701,10 +5737,10 @@
         <v>104660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5716,13 +5752,13 @@
         <v>289869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5790,13 +5826,13 @@
         <v>12708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5805,13 +5841,13 @@
         <v>6103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5820,13 +5856,13 @@
         <v>18811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5877,13 @@
         <v>369214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
         <v>232</v>
@@ -5856,13 +5892,13 @@
         <v>247507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5871,13 +5907,13 @@
         <v>616721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5969,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5945,13 +5981,13 @@
         <v>5611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5966,7 +6002,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5975,13 +6011,13 @@
         <v>5611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6032,13 @@
         <v>450815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -6014,7 +6050,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6026,13 +6062,13 @@
         <v>716082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6136,13 @@
         <v>42235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6115,13 +6151,13 @@
         <v>11756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6130,13 +6166,13 @@
         <v>53991</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6187,13 @@
         <v>1960379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>1082</v>
@@ -6166,13 +6202,13 @@
         <v>1132989</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6181,13 +6217,13 @@
         <v>3093368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6267,7 +6303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F8A2F-2A31-4330-A633-BC4216E982E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D33D43-530C-41E3-9425-97853B37ACEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6284,7 +6320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6391,13 +6427,13 @@
         <v>4246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6406,13 +6442,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6424,10 +6460,10 @@
         <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6478,13 @@
         <v>150234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -6457,10 +6493,10 @@
         <v>84798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6472,13 +6508,13 @@
         <v>235032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6582,13 @@
         <v>2768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6567,7 +6603,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6576,13 +6612,13 @@
         <v>2768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,10 +6633,10 @@
         <v>249177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6615,7 +6651,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6627,10 +6663,10 @@
         <v>374476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6701,13 +6737,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6716,13 +6752,13 @@
         <v>1794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -6731,13 +6767,13 @@
         <v>9886</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6788,13 @@
         <v>180850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>122</v>
@@ -6767,13 +6803,13 @@
         <v>94004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -6782,13 +6818,13 @@
         <v>274854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6892,13 @@
         <v>1688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6871,13 +6907,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6886,13 +6922,13 @@
         <v>2651</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,10 +6943,10 @@
         <v>179889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6922,10 +6958,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6937,13 +6973,13 @@
         <v>313090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7053,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7026,13 +7062,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7041,13 +7077,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,7 +7101,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7077,10 +7113,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7092,10 +7128,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7166,13 +7202,13 @@
         <v>3827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7181,13 +7217,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7196,13 +7232,13 @@
         <v>6227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7253,13 @@
         <v>165597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7232,13 +7268,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -7247,13 +7283,13 @@
         <v>266532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7321,13 +7357,13 @@
         <v>6777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7336,13 +7372,13 @@
         <v>7532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -7351,13 +7387,13 @@
         <v>14309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,10 +7408,10 @@
         <v>302152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>51</v>
@@ -7387,13 +7423,13 @@
         <v>312804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -7402,13 +7438,13 @@
         <v>614956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,7 +7500,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7476,13 +7512,13 @@
         <v>3024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7497,7 +7533,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7509,10 +7545,10 @@
         <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7563,13 @@
         <v>322940</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -7542,10 +7578,10 @@
         <v>119829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7557,13 +7593,13 @@
         <v>442769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7667,13 @@
         <v>30421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7646,13 +7682,13 @@
         <v>14961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -7661,13 +7697,13 @@
         <v>45382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7718,13 @@
         <v>1585370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>1182</v>
@@ -7697,13 +7733,13 @@
         <v>980185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>412</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>2732</v>
@@ -7712,13 +7748,13 @@
         <v>2565555</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,7 +7810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38180C7-06DA-447C-BF4A-0677379A4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9129106C-9730-4FDB-A3CF-D9FA16BDCFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C129D8E6-6F33-4FC2-95C6-992F62B43971}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{39B46EE1-04C6-453A-B8CF-DEECBABEE4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="431">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -440,7 +440,46 @@
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>2,92%</t>
@@ -497,52 +536,28 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>4,05%</t>
@@ -623,9 +638,6 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
     <t>1,5%</t>
   </si>
   <si>
@@ -647,9 +659,6 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
@@ -941,9 +950,6 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>5,25%</t>
   </si>
   <si>
@@ -965,9 +971,6 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
     <t>94,75%</t>
   </si>
   <si>
@@ -1049,274 +1052,286 @@
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>94,57%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>96,5%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>97,48%</t>
   </si>
   <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3897374C-596E-4E08-8B94-F9A96CF1AC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E96B9-8FDC-4432-8E14-14124C862D18}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3259,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC5364-901D-4655-8109-176D6F033855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76413319-8F03-4504-BFF7-33A447AB91FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,43 +3392,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18335</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2014</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20348</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,43 +3443,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="D5" s="7">
+        <v>156990</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I5" s="7">
+        <v>107678</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="N5" s="7">
+        <v>264669</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,43 +3494,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>175325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>109692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="N6" s="7">
+        <v>285017</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3553,13 @@
         <v>9049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3553,10 +3586,10 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3604,10 @@
         <v>301071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
@@ -3604,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3714,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3690,13 +3723,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3705,13 +3738,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3741,10 +3774,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3756,10 +3789,10 @@
         <v>326136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3824,49 +3857,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>19259</v>
+        <v>924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>924</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="7">
-        <v>21</v>
-      </c>
-      <c r="N13" s="7">
-        <v>21272</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,49 +3908,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>347095</v>
+        <v>190105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>195020</v>
+        <v>87342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="7">
+        <v>255</v>
+      </c>
+      <c r="N14" s="7">
+        <v>277447</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="M14" s="7">
-        <v>498</v>
-      </c>
-      <c r="N14" s="7">
-        <v>542116</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="D15" s="7">
-        <v>366354</v>
+        <v>191029</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3941,10 +3974,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>197034</v>
+        <v>87342</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3956,10 +3989,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>519</v>
+        <v>256</v>
       </c>
       <c r="N15" s="7">
-        <v>563388</v>
+        <v>278371</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3985,13 +4018,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4006,7 +4039,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4015,13 +4048,13 @@
         <v>5193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4069,13 @@
         <v>123015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4054,7 +4087,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4066,13 +4099,13 @@
         <v>177124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4173,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4161,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4170,13 +4203,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4224,10 @@
         <v>182815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4209,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4254,10 @@
         <v>277021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4295,13 +4328,13 @@
         <v>14777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4310,13 +4343,13 @@
         <v>3211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4325,13 +4358,13 @@
         <v>17988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4379,13 @@
         <v>382692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4361,13 +4394,13 @@
         <v>210247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -4376,13 +4409,13 @@
         <v>592940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4483,13 @@
         <v>9130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4465,13 +4498,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4480,13 +4513,13 @@
         <v>10126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,10 +4534,10 @@
         <v>444620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>65</v>
@@ -4516,10 +4549,10 @@
         <v>212923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4531,13 +4564,13 @@
         <v>657543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4638,13 @@
         <v>58462</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4623,10 +4656,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4635,13 +4668,13 @@
         <v>65668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4689,13 @@
         <v>1983782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>956</v>
@@ -4674,10 +4707,10 @@
         <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>2822</v>
@@ -4686,13 +4719,13 @@
         <v>3025312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,7 +4805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00EF133-3B68-4A63-BEBF-C077F8890F33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9A294-A121-4D67-94DC-A4EDFF8EF5F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4789,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4896,13 +4929,13 @@
         <v>13342</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4911,13 +4944,13 @@
         <v>4712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4926,13 +4959,13 @@
         <v>18054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4980,13 @@
         <v>165330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4962,13 +4995,13 @@
         <v>101449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -4977,13 +5010,13 @@
         <v>266779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5090,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5087,7 +5120,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5168,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5206,13 +5239,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5227,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5236,13 +5269,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,10 +5290,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5308,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5287,10 +5320,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5361,13 +5394,13 @@
         <v>2225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5382,7 +5415,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5391,13 +5424,13 @@
         <v>2225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,10 +5445,10 @@
         <v>230286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5463,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5442,10 +5475,10 @@
         <v>383083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5516,13 +5549,13 @@
         <v>3640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5537,7 +5570,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5546,13 +5579,13 @@
         <v>3640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5600,13 @@
         <v>87537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5585,7 +5618,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5594,13 +5627,13 @@
         <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>125012</v>
+        <v>125011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>88</v>
@@ -5645,7 +5678,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128652</v>
+        <v>128651</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5671,10 +5704,10 @@
         <v>3844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>19</v>
@@ -5701,13 +5734,13 @@
         <v>4785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5755,13 @@
         <v>185209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -5752,13 +5785,13 @@
         <v>289869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5859,13 @@
         <v>12708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5841,13 +5874,13 @@
         <v>6103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5856,13 +5889,13 @@
         <v>18811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5910,13 @@
         <v>369214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>232</v>
@@ -5892,13 +5925,13 @@
         <v>247507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5907,13 +5940,13 @@
         <v>616721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6014,13 @@
         <v>5611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6002,7 +6035,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6011,13 +6044,13 @@
         <v>5611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6065,13 @@
         <v>450815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -6050,7 +6083,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6062,13 +6095,13 @@
         <v>716082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6169,13 @@
         <v>42235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6154,10 +6187,10 @@
         <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6166,13 +6199,13 @@
         <v>53991</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6220,13 @@
         <v>1960379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>1082</v>
@@ -6205,10 +6238,10 @@
         <v>107</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6217,10 +6250,10 @@
         <v>3093368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>123</v>
@@ -6303,7 +6336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D33D43-530C-41E3-9425-97853B37ACEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B06790F-3D75-4C9F-B9C2-D7F2D2AB94F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,7 +6353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6424,10 +6457,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4246</v>
+        <v>5567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>337</v>
@@ -6439,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>339</v>
@@ -6454,16 +6487,16 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>4405</v>
+        <v>5734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,10 +6508,10 @@
         <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>150234</v>
+        <v>174322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>343</v>
@@ -6490,7 +6523,7 @@
         <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>84798</v>
+        <v>90517</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>345</v>
@@ -6505,16 +6538,16 @@
         <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>235032</v>
+        <v>264838</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,7 +6559,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6541,7 +6574,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6556,7 +6589,7 @@
         <v>347</v>
       </c>
       <c r="N6" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6579,16 +6612,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2768</v>
+        <v>3174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6609,16 +6642,16 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>2768</v>
+        <v>3174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6663,13 @@
         <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>249177</v>
+        <v>251282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6645,7 +6678,7 @@
         <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -6660,13 +6693,13 @@
         <v>324</v>
       </c>
       <c r="N8" s="7">
-        <v>374476</v>
+        <v>368252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6681,7 +6714,7 @@
         <v>179</v>
       </c>
       <c r="D9" s="7">
-        <v>251945</v>
+        <v>254456</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6696,7 +6729,7 @@
         <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6711,7 +6744,7 @@
         <v>325</v>
       </c>
       <c r="N9" s="7">
-        <v>377244</v>
+        <v>371426</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6734,46 +6767,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>8092</v>
+        <v>7853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1794</v>
+        <v>1683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>9886</v>
+        <v>9536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,46 +6818,46 @@
         <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>180850</v>
+        <v>177333</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>94004</v>
+        <v>88589</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
       </c>
       <c r="N11" s="7">
-        <v>274854</v>
+        <v>265922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,7 +6869,7 @@
         <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6851,7 +6884,7 @@
         <v>125</v>
       </c>
       <c r="I12" s="7">
-        <v>95798</v>
+        <v>90272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6866,7 +6899,7 @@
         <v>337</v>
       </c>
       <c r="N12" s="7">
-        <v>284740</v>
+        <v>275458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6889,46 +6922,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1688</v>
+        <v>1613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>963</v>
+        <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2651</v>
+        <v>2515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6973,13 @@
         <v>158</v>
       </c>
       <c r="D14" s="7">
-        <v>179889</v>
+        <v>175864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6955,13 +6988,13 @@
         <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>133201</v>
+        <v>123443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6970,16 +7003,16 @@
         <v>336</v>
       </c>
       <c r="N14" s="7">
-        <v>313090</v>
+        <v>299307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +7024,7 @@
         <v>160</v>
       </c>
       <c r="D15" s="7">
-        <v>181577</v>
+        <v>177477</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7006,7 +7039,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="7">
-        <v>134164</v>
+        <v>124345</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7021,7 +7054,7 @@
         <v>340</v>
       </c>
       <c r="N15" s="7">
-        <v>315741</v>
+        <v>301822</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7053,37 +7086,37 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7128,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7110,13 +7143,13 @@
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>9315</v>
+        <v>8143</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7125,13 +7158,13 @@
         <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>43845</v>
+        <v>39289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7146,7 +7179,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7161,7 +7194,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7176,7 +7209,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7199,46 +7232,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3827</v>
+        <v>3655</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2400</v>
+        <v>2216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>6227</v>
+        <v>5871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,37 +7283,37 @@
         <v>206</v>
       </c>
       <c r="D20" s="7">
-        <v>165597</v>
+        <v>161393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>100936</v>
+        <v>94204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
       </c>
       <c r="N20" s="7">
-        <v>266532</v>
+        <v>255597</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>395</v>
@@ -7289,7 +7322,7 @@
         <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7334,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7316,7 +7349,7 @@
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7331,7 +7364,7 @@
         <v>359</v>
       </c>
       <c r="N21" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7354,46 +7387,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>6777</v>
+        <v>6506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>7532</v>
+        <v>6726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>14309</v>
+        <v>13232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,46 +7438,46 @@
         <v>281</v>
       </c>
       <c r="D23" s="7">
-        <v>302152</v>
+        <v>301424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>277</v>
       </c>
       <c r="I23" s="7">
-        <v>312804</v>
+        <v>392747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
       </c>
       <c r="N23" s="7">
-        <v>614956</v>
+        <v>694171</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,7 +7489,7 @@
         <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>308929</v>
+        <v>307930</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7471,7 +7504,7 @@
         <v>285</v>
       </c>
       <c r="I24" s="7">
-        <v>320336</v>
+        <v>399473</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7486,7 +7519,7 @@
         <v>576</v>
       </c>
       <c r="N24" s="7">
-        <v>629265</v>
+        <v>707403</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7509,46 +7542,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3024</v>
+        <v>2580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1631</v>
+        <v>1392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>4655</v>
+        <v>3971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,28 +7593,28 @@
         <v>299</v>
       </c>
       <c r="D26" s="7">
-        <v>322940</v>
+        <v>273932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
       </c>
       <c r="I26" s="7">
-        <v>119829</v>
+        <v>97709</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7590,16 +7623,16 @@
         <v>433</v>
       </c>
       <c r="N26" s="7">
-        <v>442769</v>
+        <v>371641</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7644,7 @@
         <v>302</v>
       </c>
       <c r="D27" s="7">
-        <v>325964</v>
+        <v>276512</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7626,7 +7659,7 @@
         <v>136</v>
       </c>
       <c r="I27" s="7">
-        <v>121460</v>
+        <v>99101</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7641,7 +7674,7 @@
         <v>438</v>
       </c>
       <c r="N27" s="7">
-        <v>447424</v>
+        <v>375612</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7664,46 +7697,46 @@
         <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>30421</v>
+        <v>30947</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>418</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
       </c>
       <c r="I28" s="7">
-        <v>14961</v>
+        <v>13525</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
       </c>
       <c r="N28" s="7">
-        <v>45382</v>
+        <v>44472</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,46 +7748,46 @@
         <v>1550</v>
       </c>
       <c r="D29" s="7">
-        <v>1585370</v>
+        <v>1546697</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>427</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>1182</v>
       </c>
       <c r="I29" s="7">
-        <v>980185</v>
+        <v>1012322</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <v>2732</v>
       </c>
       <c r="N29" s="7">
-        <v>2565555</v>
+        <v>2559019</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,7 +7799,7 @@
         <v>1585</v>
       </c>
       <c r="D30" s="7">
-        <v>1615791</v>
+        <v>1577644</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7781,7 +7814,7 @@
         <v>1202</v>
       </c>
       <c r="I30" s="7">
-        <v>995146</v>
+        <v>1025847</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7796,7 +7829,7 @@
         <v>2787</v>
       </c>
       <c r="N30" s="7">
-        <v>2610937</v>
+        <v>2603491</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
